--- a/docs/manual_testing.xlsx
+++ b/docs/manual_testing.xlsx
@@ -282,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -306,20 +306,9 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="13"/>
@@ -700,31 +689,31 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -733,19 +722,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -754,43 +743,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -805,22 +794,22 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1924,9 +1913,12 @@
   <cols>
     <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.3438" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
-    <col min="5" max="8" width="61" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.8359" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.1016" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7734" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.0078" style="1" customWidth="1"/>
     <col min="9" max="26" width="16.3516" style="1" customWidth="1"/>
     <col min="27" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
